--- a/lab11/a2_1.xlsx
+++ b/lab11/a2_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\SEM7\kry\lab11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Workspace\ZHAW\SEM7\kry\lab11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00ACB5FA-E49F-4F91-995A-5D581ABAE9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9418B6D-D9E3-4015-852E-2E6F266FC8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2640" windowWidth="22650" windowHeight="11925" xr2:uid="{E9810C01-AADD-4785-821B-D33B8496B9AA}"/>
+    <workbookView xWindow="1845" yWindow="825" windowWidth="26190" windowHeight="16635" xr2:uid="{E9810C01-AADD-4785-821B-D33B8496B9AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,13 +59,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,14 +98,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -103,7 +123,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -402,10 +422,10 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -501,47 +521,47 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="b">
+      <c r="B3" s="2" t="b">
         <f>MOD(B2^5,11)=1</f>
         <v>1</v>
       </c>
-      <c r="C3" t="b">
+      <c r="C3" s="3" t="b">
         <f t="shared" ref="C3:L3" si="1">MOD(C2^5,11)=1</f>
         <v>0</v>
       </c>
-      <c r="D3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L3" t="b">
+      <c r="D3" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/lab11/a2_1.xlsx
+++ b/lab11/a2_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Workspace\ZHAW\SEM7\kry\lab11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\SEM7\kry\lab11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9418B6D-D9E3-4015-852E-2E6F266FC8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC32D1FF-4A16-4DE5-8BBC-D42671131F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="825" windowWidth="26190" windowHeight="16635" xr2:uid="{E9810C01-AADD-4785-821B-D33B8496B9AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9810C01-AADD-4785-821B-D33B8496B9AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>x</t>
   </si>
@@ -46,12 +46,18 @@
   <si>
     <t>s_x^5 mod 11 = 1</t>
   </si>
+  <si>
+    <t>y1 (+sqrt mod 11)</t>
+  </si>
+  <si>
+    <t>y2 (-sqrt mod 11)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +67,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,10 +100,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -98,16 +121,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -123,7 +149,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -419,19 +445,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2DCEE3-95C7-474D-B5B9-F1D8A589DA87}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -469,7 +501,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -518,52 +550,94 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="b">
+      <c r="B3" s="1" t="b">
         <f>MOD(B2^5,11)=1</f>
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="b">
+      <c r="C3" s="2" t="b">
         <f t="shared" ref="C3:L3" si="1">MOD(C2^5,11)=1</f>
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="D3" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>MOD(SQRT(B1^3+4*B1+1),11)</f>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>MOD(SQRT(F1^3+4*F1+1),11)</f>
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <f>MOD(SQRT(G1^3+4*G1+1),11)</f>
+        <v>1.0830459735945723</v>
+      </c>
+      <c r="I4">
+        <f>MOD(SQRT(I1^3+4*I1+1),11)</f>
+        <v>8.2873015219859099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>MOD(-SQRT(B1^3+4*B1+1),11)</f>
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <f>MOD(-SQRT(F1^3+4*F1+1),11)</f>
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f>MOD(-SQRT(G1^3+4*G1+1),11)</f>
+        <v>9.9169540264054277</v>
+      </c>
+      <c r="I5">
+        <f>MOD(-SQRT(I1^3+4*I1+1),11)</f>
+        <v>2.7126984780140901</v>
       </c>
     </row>
   </sheetData>

--- a/lab11/a2_1.xlsx
+++ b/lab11/a2_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\SEM7\kry\lab11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC32D1FF-4A16-4DE5-8BBC-D42671131F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78CCB91-E389-4B64-BD1A-850814E3CE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9810C01-AADD-4785-821B-D33B8496B9AA}"/>
   </bookViews>
@@ -121,14 +121,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -447,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2DCEE3-95C7-474D-B5B9-F1D8A589DA87}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
+      <selection sqref="A1:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +596,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -611,16 +608,16 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <f>MOD(SQRT(G1^3+4*G1+1),11)</f>
-        <v>1.0830459735945723</v>
+        <f>ROUND(MOD(SQRT(G1^3+4*G1+1),11),0)</f>
+        <v>1</v>
       </c>
       <c r="I4">
-        <f>MOD(SQRT(I1^3+4*I1+1),11)</f>
-        <v>8.2873015219859099</v>
+        <f>ROUND(MOD(SQRT(I1^3+4*I1+1),11),0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -632,12 +629,12 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <f>MOD(-SQRT(G1^3+4*G1+1),11)</f>
-        <v>9.9169540264054277</v>
+        <f>ROUND(MOD(-SQRT(G1^3+4*G1+1),11),0)</f>
+        <v>10</v>
       </c>
       <c r="I5">
-        <f>MOD(-SQRT(I1^3+4*I1+1),11)</f>
-        <v>2.7126984780140901</v>
+        <f>ROUND(MOD(-SQRT(I1^3+4*I1+1),11),0)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
